--- a/Ver_Year_2/24_YEAR.xlsx
+++ b/Ver_Year_2/24_YEAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\24-AGR\24-AGR\Ver_Year_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7314E823-CB33-4E59-8AAB-043367006ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78572C33-56E8-4CD3-9C9C-1EA97EAE998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{270B01E8-BC1B-48F2-A63B-1CB23688CFEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{270B01E8-BC1B-48F2-A63B-1CB23688CFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="602">
   <si>
     <t>title</t>
   </si>
@@ -1322,6 +1322,510 @@
   </si>
   <si>
     <t>dec/DataSet/Data/CAP11_R1_C8</t>
+  </si>
+  <si>
+    <t>CAP21_R1_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 1 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R1_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R2_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 2 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R2_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R3_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 3 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R3_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R4_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 4 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R4_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R5_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 5 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R5_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R6_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 6 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R6_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R7_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 7 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R7_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R8_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 8 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R8_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R9_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 9 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R9_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R10_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 10 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R10_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R11_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 11 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R11_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R12_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 12 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R12_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R13_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 13 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R13_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R14_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 14 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R14_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R15_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 15 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R15_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R16_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 16 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R16_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R17_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 17 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R17_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R18_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 18 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R18_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R19_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 19 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R19_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R20_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 20 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R20_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R21_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 21 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R21_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R22_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 22 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R22_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R23_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 23 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R23_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R24_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 24 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R24_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R25_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 25 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R25_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R26_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 26 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R26_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R27_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 27 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R27_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R28_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 28 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R28_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R29_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 29 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R29_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R30_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 30 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R30_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R31_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 31 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R31_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R32_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 32 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R32_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R33_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 33 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R33_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R34_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 34 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R34_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R35_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 35 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R35_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R36_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 36 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R36_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R37_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 37 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R37_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R38_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 38 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R38_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R39_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 39 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R39_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R40_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 40 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R40_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R41_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 41 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R41_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R42_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 42 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R42_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R43_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 43 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R43_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R44_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 44 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R44_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R45_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 45 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R45_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R46_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 46 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R46_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R47_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 47 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R47_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R48_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 48 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R48_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R49_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 49 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R49_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R50_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 50 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R50_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R51_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 51 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R51_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R52_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 52 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R52_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R53_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 53 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R53_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R54_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 54 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R54_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R55_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 55 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R55_C1</t>
+  </si>
+  <si>
+    <t>CAP21_R56_C1</t>
+  </si>
+  <si>
+    <t>Tabel 2.1 Rînd. 56 col.1</t>
+  </si>
+  <si>
+    <t>dec/DataSet/Data/CAP21_R56_C1</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1379,17 +1883,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1694,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8135B143-8B24-45DC-A0A8-6A34CB095E14}">
-  <dimension ref="A1:AH145"/>
+  <dimension ref="A1:AH203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="K112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82:AB138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6797,17 +7319,14 @@
       </c>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>106</v>
+      <c r="A81" t="s">
+        <v>434</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>108</v>
+        <v>435</v>
+      </c>
+      <c r="C81" t="s">
+        <v>436</v>
       </c>
       <c r="F81" t="s">
         <v>82</v>
@@ -6831,19 +7350,19 @@
         <v>0</v>
       </c>
       <c r="O81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>499</v>
+        <v>14</v>
       </c>
       <c r="R81">
         <v>0</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>86</v>
+      <c r="V81" t="s">
+        <v>83</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -6862,23 +7381,20 @@
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>107</v>
+      <c r="A82" t="s">
+        <v>437</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>108</v>
+        <v>438</v>
+      </c>
+      <c r="C82" t="s">
+        <v>439</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -6899,19 +7415,16 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="R82">
         <v>0</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="V82" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="W82">
         <v>0</v>
@@ -6930,17 +7443,14 @@
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>237</v>
-      </c>
-      <c r="B83" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" t="s">
-        <v>276</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>108</v>
+      <c r="A83" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="F83" t="s">
         <v>82</v>
@@ -6970,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6996,16 +7506,13 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>438</v>
       </c>
       <c r="C84" t="s">
-        <v>277</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>108</v>
+        <v>439</v>
       </c>
       <c r="F84" t="s">
         <v>82</v>
@@ -7035,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="R84">
         <v>0</v>
@@ -7061,16 +7568,13 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s">
-        <v>123</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>108</v>
+        <v>442</v>
       </c>
       <c r="F85" t="s">
         <v>82</v>
@@ -7100,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="R85">
         <v>0</v>
@@ -7126,16 +7630,13 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>443</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>444</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>108</v>
+        <v>445</v>
       </c>
       <c r="F86" t="s">
         <v>82</v>
@@ -7165,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>281</v>
+        <v>14</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -7191,16 +7692,13 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>446</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>447</v>
       </c>
       <c r="C87" t="s">
-        <v>280</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>108</v>
+        <v>448</v>
       </c>
       <c r="F87" t="s">
         <v>82</v>
@@ -7230,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="R87">
         <v>0</v>
@@ -7256,16 +7754,13 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>449</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s">
-        <v>281</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>108</v>
+        <v>451</v>
       </c>
       <c r="F88" t="s">
         <v>82</v>
@@ -7295,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="R88">
         <v>0</v>
@@ -7321,16 +7816,13 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s">
-        <v>127</v>
+        <v>453</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>108</v>
+        <v>454</v>
       </c>
       <c r="F89" t="s">
         <v>82</v>
@@ -7360,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>284</v>
+        <v>14</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -7386,16 +7878,13 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>455</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>456</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>108</v>
+        <v>457</v>
       </c>
       <c r="F90" t="s">
         <v>82</v>
@@ -7425,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -7451,16 +7940,13 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>459</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>108</v>
+        <v>460</v>
       </c>
       <c r="F91" t="s">
         <v>82</v>
@@ -7490,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="R91">
         <v>0</v>
@@ -7516,16 +8002,13 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>461</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>462</v>
       </c>
       <c r="C92" t="s">
-        <v>285</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>108</v>
+        <v>463</v>
       </c>
       <c r="F92" t="s">
         <v>82</v>
@@ -7555,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>287</v>
+        <v>14</v>
       </c>
       <c r="R92">
         <v>0</v>
@@ -7581,16 +8064,13 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>464</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="C93" t="s">
-        <v>286</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>108</v>
+        <v>466</v>
       </c>
       <c r="F93" t="s">
         <v>82</v>
@@ -7620,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>288</v>
+        <v>14</v>
       </c>
       <c r="R93">
         <v>0</v>
@@ -7646,16 +8126,13 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>467</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>468</v>
       </c>
       <c r="C94" t="s">
-        <v>287</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>108</v>
+        <v>469</v>
       </c>
       <c r="F94" t="s">
         <v>82</v>
@@ -7685,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="R94">
         <v>0</v>
@@ -7711,16 +8188,13 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>470</v>
       </c>
       <c r="B95" t="s">
-        <v>133</v>
+        <v>471</v>
       </c>
       <c r="C95" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>472</v>
       </c>
       <c r="F95" t="s">
         <v>82</v>
@@ -7750,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="R95">
         <v>0</v>
@@ -7776,16 +8250,13 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>473</v>
       </c>
       <c r="B96" t="s">
-        <v>134</v>
+        <v>474</v>
       </c>
       <c r="C96" t="s">
-        <v>289</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>108</v>
+        <v>475</v>
       </c>
       <c r="F96" t="s">
         <v>82</v>
@@ -7815,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>291</v>
+        <v>14</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -7841,16 +8312,13 @@
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>476</v>
       </c>
       <c r="B97" t="s">
-        <v>135</v>
+        <v>477</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>108</v>
+        <v>478</v>
       </c>
       <c r="F97" t="s">
         <v>82</v>
@@ -7880,7 +8348,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="R97">
         <v>0</v>
@@ -7906,16 +8374,13 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>479</v>
       </c>
       <c r="B98" t="s">
-        <v>136</v>
+        <v>480</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>108</v>
+        <v>481</v>
       </c>
       <c r="F98" t="s">
         <v>82</v>
@@ -7945,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -7971,16 +8436,13 @@
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>253</v>
+        <v>482</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>483</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>108</v>
+        <v>484</v>
       </c>
       <c r="F99" t="s">
         <v>82</v>
@@ -8010,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="R99">
         <v>0</v>
@@ -8036,16 +8498,13 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>485</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>486</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>108</v>
+        <v>487</v>
       </c>
       <c r="F100" t="s">
         <v>82</v>
@@ -8075,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="R100">
         <v>0</v>
@@ -8101,16 +8560,13 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>256</v>
+        <v>488</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>489</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>108</v>
+        <v>490</v>
       </c>
       <c r="F101" t="s">
         <v>82</v>
@@ -8140,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -8166,16 +8622,13 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>255</v>
+        <v>491</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>492</v>
       </c>
       <c r="C102" t="s">
-        <v>295</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>108</v>
+        <v>493</v>
       </c>
       <c r="F102" t="s">
         <v>82</v>
@@ -8205,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>297</v>
+        <v>14</v>
       </c>
       <c r="R102">
         <v>0</v>
@@ -8231,16 +8684,13 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>494</v>
       </c>
       <c r="B103" t="s">
-        <v>141</v>
+        <v>495</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>108</v>
+        <v>496</v>
       </c>
       <c r="F103" t="s">
         <v>82</v>
@@ -8270,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>298</v>
+        <v>14</v>
       </c>
       <c r="R103">
         <v>0</v>
@@ -8296,16 +8746,13 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>497</v>
       </c>
       <c r="B104" t="s">
-        <v>142</v>
+        <v>498</v>
       </c>
       <c r="C104" t="s">
-        <v>297</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>108</v>
+        <v>499</v>
       </c>
       <c r="F104" t="s">
         <v>82</v>
@@ -8335,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -8361,16 +8808,13 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>500</v>
       </c>
       <c r="B105" t="s">
-        <v>143</v>
+        <v>501</v>
       </c>
       <c r="C105" t="s">
-        <v>298</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>108</v>
+        <v>502</v>
       </c>
       <c r="F105" t="s">
         <v>82</v>
@@ -8400,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="R105">
         <v>0</v>
@@ -8426,16 +8870,13 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>503</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>504</v>
       </c>
       <c r="C106" t="s">
-        <v>299</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>108</v>
+        <v>505</v>
       </c>
       <c r="F106" t="s">
         <v>82</v>
@@ -8465,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="R106">
         <v>0</v>
@@ -8491,16 +8932,13 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>506</v>
       </c>
       <c r="B107" t="s">
-        <v>145</v>
+        <v>507</v>
       </c>
       <c r="C107" t="s">
-        <v>300</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>108</v>
+        <v>508</v>
       </c>
       <c r="F107" t="s">
         <v>82</v>
@@ -8530,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="R107">
         <v>0</v>
@@ -8556,16 +8994,13 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>509</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>510</v>
       </c>
       <c r="C108" t="s">
-        <v>301</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>108</v>
+        <v>511</v>
       </c>
       <c r="F108" t="s">
         <v>82</v>
@@ -8589,13 +9024,13 @@
         <v>0</v>
       </c>
       <c r="O108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108">
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="R108">
         <v>0</v>
@@ -8621,16 +9056,13 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>512</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>513</v>
       </c>
       <c r="C109" t="s">
-        <v>302</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>108</v>
+        <v>514</v>
       </c>
       <c r="F109" t="s">
         <v>82</v>
@@ -8654,13 +9086,13 @@
         <v>0</v>
       </c>
       <c r="O109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109">
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="R109">
         <v>0</v>
@@ -8686,16 +9118,13 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>264</v>
+        <v>515</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>516</v>
       </c>
       <c r="C110" t="s">
-        <v>303</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>108</v>
+        <v>517</v>
       </c>
       <c r="F110" t="s">
         <v>82</v>
@@ -8719,13 +9148,13 @@
         <v>0</v>
       </c>
       <c r="O110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P110">
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>305</v>
+        <v>14</v>
       </c>
       <c r="R110">
         <v>0</v>
@@ -8751,16 +9180,13 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>518</v>
       </c>
       <c r="B111" t="s">
-        <v>149</v>
+        <v>519</v>
       </c>
       <c r="C111" t="s">
-        <v>304</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>108</v>
+        <v>520</v>
       </c>
       <c r="F111" t="s">
         <v>82</v>
@@ -8784,13 +9210,13 @@
         <v>0</v>
       </c>
       <c r="O111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P111">
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="R111">
         <v>0</v>
@@ -8816,16 +9242,13 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>521</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>522</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>108</v>
+        <v>523</v>
       </c>
       <c r="F112" t="s">
         <v>82</v>
@@ -8849,13 +9272,13 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P112">
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>307</v>
+        <v>14</v>
       </c>
       <c r="R112">
         <v>0</v>
@@ -8881,16 +9304,13 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>524</v>
       </c>
       <c r="B113" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="C113" t="s">
-        <v>306</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>108</v>
+        <v>526</v>
       </c>
       <c r="F113" t="s">
         <v>82</v>
@@ -8914,13 +9334,13 @@
         <v>0</v>
       </c>
       <c r="O113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P113">
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>308</v>
+        <v>14</v>
       </c>
       <c r="R113">
         <v>0</v>
@@ -8946,16 +9366,13 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>527</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>528</v>
       </c>
       <c r="C114" t="s">
-        <v>307</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>108</v>
+        <v>529</v>
       </c>
       <c r="F114" t="s">
         <v>82</v>
@@ -8985,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -9011,16 +9428,13 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>269</v>
+        <v>530</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>531</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>108</v>
+        <v>532</v>
       </c>
       <c r="F115" t="s">
         <v>82</v>
@@ -9050,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="R115">
         <v>0</v>
@@ -9076,16 +9490,13 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>533</v>
       </c>
       <c r="B116" t="s">
-        <v>154</v>
+        <v>534</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>108</v>
+        <v>535</v>
       </c>
       <c r="F116" t="s">
         <v>82</v>
@@ -9115,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -9141,16 +9552,13 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>536</v>
       </c>
       <c r="B117" t="s">
-        <v>155</v>
+        <v>537</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>108</v>
+        <v>538</v>
       </c>
       <c r="F117" t="s">
         <v>82</v>
@@ -9180,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="R117">
         <v>0</v>
@@ -9206,16 +9614,13 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>539</v>
       </c>
       <c r="B118" t="s">
-        <v>156</v>
+        <v>540</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>108</v>
+        <v>541</v>
       </c>
       <c r="F118" t="s">
         <v>82</v>
@@ -9245,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="R118">
         <v>0</v>
@@ -9271,16 +9676,13 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>273</v>
+        <v>542</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>543</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>108</v>
+        <v>544</v>
       </c>
       <c r="F119" t="s">
         <v>82</v>
@@ -9310,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>314</v>
+        <v>14</v>
       </c>
       <c r="R119">
         <v>0</v>
@@ -9334,993 +9736,945 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J120" s="3">
-        <v>0</v>
-      </c>
-      <c r="K120" s="3">
-        <v>0</v>
-      </c>
-      <c r="L120" s="3">
-        <v>0</v>
-      </c>
-      <c r="M120" s="3">
-        <v>0</v>
-      </c>
-      <c r="N120" s="3">
-        <v>0</v>
-      </c>
-      <c r="O120" s="3">
-        <v>0</v>
-      </c>
-      <c r="P120" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q120" s="3">
-        <v>309</v>
-      </c>
-      <c r="R120" s="3">
-        <v>0</v>
-      </c>
-      <c r="V120" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W120" s="3">
-        <v>0</v>
-      </c>
-      <c r="X120" s="3">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>545</v>
+      </c>
+      <c r="B120" t="s">
+        <v>546</v>
+      </c>
+      <c r="C120" t="s">
+        <v>547</v>
+      </c>
+      <c r="F120" t="s">
+        <v>82</v>
+      </c>
+      <c r="G120" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>14</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="V120" t="s">
+        <v>83</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
         <v>0</v>
       </c>
       <c r="Y120">
         <v>100</v>
       </c>
-      <c r="Z120" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J121" s="3">
-        <v>0</v>
-      </c>
-      <c r="K121" s="3">
-        <v>0</v>
-      </c>
-      <c r="L121" s="3">
-        <v>0</v>
-      </c>
-      <c r="M121" s="3">
-        <v>0</v>
-      </c>
-      <c r="N121" s="3">
-        <v>0</v>
-      </c>
-      <c r="O121" s="3">
-        <v>0</v>
-      </c>
-      <c r="P121" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="3">
-        <v>309</v>
-      </c>
-      <c r="R121" s="3">
-        <v>0</v>
-      </c>
-      <c r="V121" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W121" s="3">
-        <v>0</v>
-      </c>
-      <c r="X121" s="3">
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>548</v>
+      </c>
+      <c r="B121" t="s">
+        <v>549</v>
+      </c>
+      <c r="C121" t="s">
+        <v>550</v>
+      </c>
+      <c r="F121" t="s">
+        <v>82</v>
+      </c>
+      <c r="G121" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>14</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="V121" t="s">
+        <v>83</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
         <v>0</v>
       </c>
       <c r="Y121">
         <v>100</v>
       </c>
-      <c r="Z121" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J122" s="3">
-        <v>0</v>
-      </c>
-      <c r="K122" s="3">
-        <v>0</v>
-      </c>
-      <c r="L122" s="3">
-        <v>0</v>
-      </c>
-      <c r="M122" s="3">
-        <v>0</v>
-      </c>
-      <c r="N122" s="3">
-        <v>0</v>
-      </c>
-      <c r="O122" s="3">
-        <v>0</v>
-      </c>
-      <c r="P122" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="3">
-        <v>309</v>
-      </c>
-      <c r="R122" s="3">
-        <v>0</v>
-      </c>
-      <c r="V122" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W122" s="3">
-        <v>0</v>
-      </c>
-      <c r="X122" s="3">
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>551</v>
+      </c>
+      <c r="B122" t="s">
+        <v>552</v>
+      </c>
+      <c r="C122" t="s">
+        <v>553</v>
+      </c>
+      <c r="F122" t="s">
+        <v>82</v>
+      </c>
+      <c r="G122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>14</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="V122" t="s">
+        <v>83</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
         <v>0</v>
       </c>
       <c r="Y122">
         <v>100</v>
       </c>
-      <c r="Z122" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB122" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J123" s="3">
-        <v>0</v>
-      </c>
-      <c r="K123" s="3">
-        <v>0</v>
-      </c>
-      <c r="L123" s="3">
-        <v>0</v>
-      </c>
-      <c r="M123" s="3">
-        <v>0</v>
-      </c>
-      <c r="N123" s="3">
-        <v>0</v>
-      </c>
-      <c r="O123" s="3">
-        <v>0</v>
-      </c>
-      <c r="P123" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="3">
-        <v>309</v>
-      </c>
-      <c r="R123" s="3">
-        <v>0</v>
-      </c>
-      <c r="V123" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W123" s="3">
-        <v>0</v>
-      </c>
-      <c r="X123" s="3">
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>554</v>
+      </c>
+      <c r="B123" t="s">
+        <v>555</v>
+      </c>
+      <c r="C123" t="s">
+        <v>556</v>
+      </c>
+      <c r="F123" t="s">
+        <v>82</v>
+      </c>
+      <c r="G123" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>14</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="V123" t="s">
+        <v>83</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
         <v>0</v>
       </c>
       <c r="Y123">
         <v>100</v>
       </c>
-      <c r="Z123" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB123" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J124" s="3">
-        <v>0</v>
-      </c>
-      <c r="K124" s="3">
-        <v>0</v>
-      </c>
-      <c r="L124" s="3">
-        <v>0</v>
-      </c>
-      <c r="M124" s="3">
-        <v>0</v>
-      </c>
-      <c r="N124" s="3">
-        <v>0</v>
-      </c>
-      <c r="O124" s="3">
-        <v>0</v>
-      </c>
-      <c r="P124" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="3">
-        <v>309</v>
-      </c>
-      <c r="R124" s="3">
-        <v>0</v>
-      </c>
-      <c r="V124" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W124" s="3">
-        <v>0</v>
-      </c>
-      <c r="X124" s="3">
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>557</v>
+      </c>
+      <c r="B124" t="s">
+        <v>558</v>
+      </c>
+      <c r="C124" t="s">
+        <v>559</v>
+      </c>
+      <c r="F124" t="s">
+        <v>82</v>
+      </c>
+      <c r="G124" t="s">
+        <v>33</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>14</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="V124" t="s">
+        <v>83</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
         <v>0</v>
       </c>
       <c r="Y124">
         <v>100</v>
       </c>
-      <c r="Z124" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB124" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J125" s="3">
-        <v>0</v>
-      </c>
-      <c r="K125" s="3">
-        <v>0</v>
-      </c>
-      <c r="L125" s="3">
-        <v>0</v>
-      </c>
-      <c r="M125" s="3">
-        <v>0</v>
-      </c>
-      <c r="N125" s="3">
-        <v>0</v>
-      </c>
-      <c r="O125" s="3">
-        <v>0</v>
-      </c>
-      <c r="P125" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="3">
-        <v>309</v>
-      </c>
-      <c r="R125" s="3">
-        <v>0</v>
-      </c>
-      <c r="V125" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W125" s="3">
-        <v>0</v>
-      </c>
-      <c r="X125" s="3">
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>560</v>
+      </c>
+      <c r="B125" t="s">
+        <v>561</v>
+      </c>
+      <c r="C125" t="s">
+        <v>562</v>
+      </c>
+      <c r="F125" t="s">
+        <v>82</v>
+      </c>
+      <c r="G125" t="s">
+        <v>33</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>14</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="V125" t="s">
+        <v>83</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
         <v>0</v>
       </c>
       <c r="Y125">
         <v>100</v>
       </c>
-      <c r="Z125" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB125" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J126" s="3">
-        <v>0</v>
-      </c>
-      <c r="K126" s="3">
-        <v>0</v>
-      </c>
-      <c r="L126" s="3">
-        <v>0</v>
-      </c>
-      <c r="M126" s="3">
-        <v>0</v>
-      </c>
-      <c r="N126" s="3">
-        <v>0</v>
-      </c>
-      <c r="O126" s="3">
-        <v>0</v>
-      </c>
-      <c r="P126" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="3">
-        <v>309</v>
-      </c>
-      <c r="R126" s="3">
-        <v>0</v>
-      </c>
-      <c r="V126" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W126" s="3">
-        <v>0</v>
-      </c>
-      <c r="X126" s="3">
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>563</v>
+      </c>
+      <c r="B126" t="s">
+        <v>564</v>
+      </c>
+      <c r="C126" t="s">
+        <v>565</v>
+      </c>
+      <c r="F126" t="s">
+        <v>82</v>
+      </c>
+      <c r="G126" t="s">
+        <v>33</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>14</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="V126" t="s">
+        <v>83</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
         <v>0</v>
       </c>
       <c r="Y126">
         <v>100</v>
       </c>
-      <c r="Z126" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB126" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J127" s="3">
-        <v>0</v>
-      </c>
-      <c r="K127" s="3">
-        <v>0</v>
-      </c>
-      <c r="L127" s="3">
-        <v>0</v>
-      </c>
-      <c r="M127" s="3">
-        <v>0</v>
-      </c>
-      <c r="N127" s="3">
-        <v>0</v>
-      </c>
-      <c r="O127" s="3">
-        <v>0</v>
-      </c>
-      <c r="P127" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q127" s="3">
-        <v>309</v>
-      </c>
-      <c r="R127" s="3">
-        <v>0</v>
-      </c>
-      <c r="V127" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W127" s="3">
-        <v>0</v>
-      </c>
-      <c r="X127" s="3">
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>566</v>
+      </c>
+      <c r="B127" t="s">
+        <v>567</v>
+      </c>
+      <c r="C127" t="s">
+        <v>568</v>
+      </c>
+      <c r="F127" t="s">
+        <v>82</v>
+      </c>
+      <c r="G127" t="s">
+        <v>33</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>14</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="V127" t="s">
+        <v>83</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
         <v>0</v>
       </c>
       <c r="Y127">
         <v>100</v>
       </c>
-      <c r="Z127" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB127" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J128" s="3">
-        <v>0</v>
-      </c>
-      <c r="K128" s="3">
-        <v>0</v>
-      </c>
-      <c r="L128" s="3">
-        <v>0</v>
-      </c>
-      <c r="M128" s="3">
-        <v>0</v>
-      </c>
-      <c r="N128" s="3">
-        <v>0</v>
-      </c>
-      <c r="O128" s="3">
-        <v>0</v>
-      </c>
-      <c r="P128" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q128" s="3">
-        <v>309</v>
-      </c>
-      <c r="R128" s="3">
-        <v>0</v>
-      </c>
-      <c r="V128" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W128" s="3">
-        <v>0</v>
-      </c>
-      <c r="X128" s="3">
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>569</v>
+      </c>
+      <c r="B128" t="s">
+        <v>570</v>
+      </c>
+      <c r="C128" t="s">
+        <v>571</v>
+      </c>
+      <c r="F128" t="s">
+        <v>82</v>
+      </c>
+      <c r="G128" t="s">
+        <v>33</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>14</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="V128" t="s">
+        <v>83</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
         <v>0</v>
       </c>
       <c r="Y128">
         <v>100</v>
       </c>
-      <c r="Z128" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB128" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J129" s="3">
-        <v>0</v>
-      </c>
-      <c r="K129" s="3">
-        <v>0</v>
-      </c>
-      <c r="L129" s="3">
-        <v>0</v>
-      </c>
-      <c r="M129" s="3">
-        <v>0</v>
-      </c>
-      <c r="N129" s="3">
-        <v>0</v>
-      </c>
-      <c r="O129" s="3">
-        <v>0</v>
-      </c>
-      <c r="P129" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q129" s="3">
-        <v>309</v>
-      </c>
-      <c r="R129" s="3">
-        <v>0</v>
-      </c>
-      <c r="V129" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W129" s="3">
-        <v>0</v>
-      </c>
-      <c r="X129" s="3">
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>572</v>
+      </c>
+      <c r="B129" t="s">
+        <v>573</v>
+      </c>
+      <c r="C129" t="s">
+        <v>574</v>
+      </c>
+      <c r="F129" t="s">
+        <v>82</v>
+      </c>
+      <c r="G129" t="s">
+        <v>33</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>14</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="V129" t="s">
+        <v>83</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
         <v>0</v>
       </c>
       <c r="Y129">
         <v>100</v>
       </c>
-      <c r="Z129" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB129" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J130" s="3">
-        <v>0</v>
-      </c>
-      <c r="K130" s="3">
-        <v>0</v>
-      </c>
-      <c r="L130" s="3">
-        <v>0</v>
-      </c>
-      <c r="M130" s="3">
-        <v>0</v>
-      </c>
-      <c r="N130" s="3">
-        <v>0</v>
-      </c>
-      <c r="O130" s="3">
-        <v>0</v>
-      </c>
-      <c r="P130" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="3">
-        <v>309</v>
-      </c>
-      <c r="R130" s="3">
-        <v>0</v>
-      </c>
-      <c r="V130" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W130" s="3">
-        <v>0</v>
-      </c>
-      <c r="X130" s="3">
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>575</v>
+      </c>
+      <c r="B130" t="s">
+        <v>576</v>
+      </c>
+      <c r="C130" t="s">
+        <v>577</v>
+      </c>
+      <c r="F130" t="s">
+        <v>82</v>
+      </c>
+      <c r="G130" t="s">
+        <v>33</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>14</v>
+      </c>
+      <c r="R130">
+        <v>0</v>
+      </c>
+      <c r="V130" t="s">
+        <v>83</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
         <v>0</v>
       </c>
       <c r="Y130">
         <v>100</v>
       </c>
-      <c r="Z130" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J131" s="3">
-        <v>0</v>
-      </c>
-      <c r="K131" s="3">
-        <v>0</v>
-      </c>
-      <c r="L131" s="3">
-        <v>0</v>
-      </c>
-      <c r="M131" s="3">
-        <v>0</v>
-      </c>
-      <c r="N131" s="3">
-        <v>0</v>
-      </c>
-      <c r="O131" s="3">
-        <v>0</v>
-      </c>
-      <c r="P131" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q131" s="3">
-        <v>309</v>
-      </c>
-      <c r="R131" s="3">
-        <v>0</v>
-      </c>
-      <c r="V131" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W131" s="3">
-        <v>0</v>
-      </c>
-      <c r="X131" s="3">
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>578</v>
+      </c>
+      <c r="B131" t="s">
+        <v>579</v>
+      </c>
+      <c r="C131" t="s">
+        <v>580</v>
+      </c>
+      <c r="F131" t="s">
+        <v>82</v>
+      </c>
+      <c r="G131" t="s">
+        <v>33</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>14</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="V131" t="s">
+        <v>83</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
         <v>0</v>
       </c>
       <c r="Y131">
         <v>100</v>
       </c>
-      <c r="Z131" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB131" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J132" s="3">
-        <v>0</v>
-      </c>
-      <c r="K132" s="3">
-        <v>0</v>
-      </c>
-      <c r="L132" s="3">
-        <v>0</v>
-      </c>
-      <c r="M132" s="3">
-        <v>0</v>
-      </c>
-      <c r="N132" s="3">
-        <v>0</v>
-      </c>
-      <c r="O132" s="3">
-        <v>0</v>
-      </c>
-      <c r="P132" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q132" s="3">
-        <v>309</v>
-      </c>
-      <c r="R132" s="3">
-        <v>0</v>
-      </c>
-      <c r="V132" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W132" s="3">
-        <v>0</v>
-      </c>
-      <c r="X132" s="3">
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>581</v>
+      </c>
+      <c r="B132" t="s">
+        <v>582</v>
+      </c>
+      <c r="C132" t="s">
+        <v>583</v>
+      </c>
+      <c r="F132" t="s">
+        <v>82</v>
+      </c>
+      <c r="G132" t="s">
+        <v>33</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>14</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="V132" t="s">
+        <v>83</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
         <v>0</v>
       </c>
       <c r="Y132">
         <v>100</v>
       </c>
-      <c r="Z132" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB132" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J133" s="3">
-        <v>0</v>
-      </c>
-      <c r="K133" s="3">
-        <v>0</v>
-      </c>
-      <c r="L133" s="3">
-        <v>0</v>
-      </c>
-      <c r="M133" s="3">
-        <v>0</v>
-      </c>
-      <c r="N133" s="3">
-        <v>0</v>
-      </c>
-      <c r="O133" s="3">
-        <v>0</v>
-      </c>
-      <c r="P133" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q133" s="3">
-        <v>309</v>
-      </c>
-      <c r="R133" s="3">
-        <v>0</v>
-      </c>
-      <c r="V133" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W133" s="3">
-        <v>0</v>
-      </c>
-      <c r="X133" s="3">
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>584</v>
+      </c>
+      <c r="B133" t="s">
+        <v>585</v>
+      </c>
+      <c r="C133" t="s">
+        <v>586</v>
+      </c>
+      <c r="F133" t="s">
+        <v>82</v>
+      </c>
+      <c r="G133" t="s">
+        <v>33</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>14</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="V133" t="s">
+        <v>83</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
         <v>0</v>
       </c>
       <c r="Y133">
         <v>100</v>
       </c>
-      <c r="Z133" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB133" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J134" s="3">
-        <v>0</v>
-      </c>
-      <c r="K134" s="3">
-        <v>0</v>
-      </c>
-      <c r="L134" s="3">
-        <v>0</v>
-      </c>
-      <c r="M134" s="3">
-        <v>0</v>
-      </c>
-      <c r="N134" s="3">
-        <v>0</v>
-      </c>
-      <c r="O134" s="3">
-        <v>0</v>
-      </c>
-      <c r="P134" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q134" s="3">
-        <v>309</v>
-      </c>
-      <c r="R134" s="3">
-        <v>0</v>
-      </c>
-      <c r="V134" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W134" s="3">
-        <v>0</v>
-      </c>
-      <c r="X134" s="3">
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>587</v>
+      </c>
+      <c r="B134" t="s">
+        <v>588</v>
+      </c>
+      <c r="C134" t="s">
+        <v>589</v>
+      </c>
+      <c r="F134" t="s">
+        <v>82</v>
+      </c>
+      <c r="G134" t="s">
+        <v>33</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>14</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="V134" t="s">
+        <v>83</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
         <v>0</v>
       </c>
       <c r="Y134">
         <v>100</v>
       </c>
-      <c r="Z134" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB134" s="3">
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>159</v>
+        <v>590</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>591</v>
       </c>
       <c r="C135" t="s">
-        <v>160</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>108</v>
+        <v>592</v>
       </c>
       <c r="F135" t="s">
         <v>82</v>
@@ -10350,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="R135">
         <v>0</v>
@@ -10376,16 +10730,13 @@
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>402</v>
+        <v>593</v>
       </c>
       <c r="B136" t="s">
-        <v>365</v>
+        <v>594</v>
       </c>
       <c r="C136" t="s">
-        <v>403</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>108</v>
+        <v>595</v>
       </c>
       <c r="F136" t="s">
         <v>82</v>
@@ -10409,13 +10760,13 @@
         <v>0</v>
       </c>
       <c r="O136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P136">
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="R136">
         <v>0</v>
@@ -10441,16 +10792,13 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>404</v>
+        <v>596</v>
       </c>
       <c r="B137" t="s">
-        <v>366</v>
+        <v>597</v>
       </c>
       <c r="C137" t="s">
-        <v>405</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>108</v>
+        <v>598</v>
       </c>
       <c r="F137" t="s">
         <v>82</v>
@@ -10480,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="R137">
         <v>0</v>
@@ -10506,16 +10854,13 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>406</v>
+        <v>599</v>
       </c>
       <c r="B138" t="s">
-        <v>367</v>
+        <v>600</v>
       </c>
       <c r="C138" t="s">
-        <v>407</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>108</v>
+        <v>601</v>
       </c>
       <c r="F138" t="s">
         <v>82</v>
@@ -10545,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="R138">
         <v>0</v>
@@ -10570,14 +10915,14 @@
       </c>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>408</v>
+      <c r="A139" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B139" t="s">
-        <v>368</v>
-      </c>
-      <c r="C139" t="s">
-        <v>409</v>
+        <v>84</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>108</v>
@@ -10604,19 +10949,19 @@
         <v>0</v>
       </c>
       <c r="O139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q139">
-        <v>309</v>
+        <v>499</v>
       </c>
       <c r="R139">
         <v>0</v>
       </c>
-      <c r="V139" t="s">
-        <v>83</v>
+      <c r="V139" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="W139">
         <v>0</v>
@@ -10635,23 +10980,23 @@
       </c>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>410</v>
+      <c r="A140" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
-      </c>
-      <c r="C140" t="s">
-        <v>411</v>
+        <v>87</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F140" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -10669,19 +11014,22 @@
         <v>0</v>
       </c>
       <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
         <v>1</v>
       </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
       <c r="Q140">
-        <v>309</v>
+        <v>500</v>
       </c>
       <c r="R140">
         <v>0</v>
       </c>
+      <c r="T140" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="V140" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="W140">
         <v>0</v>
@@ -10701,13 +11049,13 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>412</v>
+        <v>237</v>
       </c>
       <c r="B141" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C141" t="s">
-        <v>413</v>
+        <v>276</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>108</v>
@@ -10740,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="R141">
         <v>0</v>
@@ -10766,13 +11114,13 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>414</v>
+        <v>238</v>
       </c>
       <c r="B142" t="s">
-        <v>370</v>
+        <v>122</v>
       </c>
       <c r="C142" t="s">
-        <v>415</v>
+        <v>277</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>108</v>
@@ -10805,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="R142">
         <v>0</v>
@@ -10831,13 +11179,13 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="B143" t="s">
-        <v>371</v>
+        <v>123</v>
       </c>
       <c r="C143" t="s">
-        <v>417</v>
+        <v>278</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>108</v>
@@ -10870,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="R143">
         <v>0</v>
@@ -10896,13 +11244,13 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>418</v>
+        <v>240</v>
       </c>
       <c r="B144" t="s">
-        <v>372</v>
+        <v>124</v>
       </c>
       <c r="C144" t="s">
-        <v>419</v>
+        <v>279</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>108</v>
@@ -10935,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="R144">
         <v>0</v>
@@ -10961,13 +11309,13 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>420</v>
+        <v>241</v>
       </c>
       <c r="B145" t="s">
-        <v>373</v>
+        <v>125</v>
       </c>
       <c r="C145" t="s">
-        <v>421</v>
+        <v>280</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>108</v>
@@ -11000,27 +11348,3797 @@
         <v>0</v>
       </c>
       <c r="Q145">
+        <v>282</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="V145" t="s">
+        <v>83</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>100</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>242</v>
+      </c>
+      <c r="B146" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" t="s">
+        <v>281</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F146" t="s">
+        <v>82</v>
+      </c>
+      <c r="G146" t="s">
+        <v>33</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>283</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="V146" t="s">
+        <v>83</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>100</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147" t="s">
+        <v>282</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F147" t="s">
+        <v>82</v>
+      </c>
+      <c r="G147" t="s">
+        <v>33</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>284</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="V147" t="s">
+        <v>83</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>100</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>244</v>
+      </c>
+      <c r="B148" t="s">
+        <v>128</v>
+      </c>
+      <c r="C148" t="s">
+        <v>283</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F148" t="s">
+        <v>82</v>
+      </c>
+      <c r="G148" t="s">
+        <v>33</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>285</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="V148" t="s">
+        <v>83</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148">
+        <v>100</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>245</v>
+      </c>
+      <c r="B149" t="s">
+        <v>129</v>
+      </c>
+      <c r="C149" t="s">
+        <v>284</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F149" t="s">
+        <v>82</v>
+      </c>
+      <c r="G149" t="s">
+        <v>33</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>286</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="V149" t="s">
+        <v>83</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149">
+        <v>100</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>246</v>
+      </c>
+      <c r="B150" t="s">
+        <v>130</v>
+      </c>
+      <c r="C150" t="s">
+        <v>285</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F150" t="s">
+        <v>82</v>
+      </c>
+      <c r="G150" t="s">
+        <v>33</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>287</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="V150" t="s">
+        <v>83</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150">
+        <v>100</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>247</v>
+      </c>
+      <c r="B151" t="s">
+        <v>131</v>
+      </c>
+      <c r="C151" t="s">
+        <v>286</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F151" t="s">
+        <v>82</v>
+      </c>
+      <c r="G151" t="s">
+        <v>33</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>288</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="V151" t="s">
+        <v>83</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>100</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>248</v>
+      </c>
+      <c r="B152" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" t="s">
+        <v>287</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F152" t="s">
+        <v>82</v>
+      </c>
+      <c r="G152" t="s">
+        <v>33</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>289</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="V152" t="s">
+        <v>83</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152">
+        <v>100</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AB152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>249</v>
+      </c>
+      <c r="B153" t="s">
+        <v>133</v>
+      </c>
+      <c r="C153" t="s">
+        <v>288</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F153" t="s">
+        <v>82</v>
+      </c>
+      <c r="G153" t="s">
+        <v>33</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>290</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="V153" t="s">
+        <v>83</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153">
+        <v>100</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AB153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>250</v>
+      </c>
+      <c r="B154" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" t="s">
+        <v>289</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F154" t="s">
+        <v>82</v>
+      </c>
+      <c r="G154" t="s">
+        <v>33</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>291</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="V154" t="s">
+        <v>83</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>100</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B155" t="s">
+        <v>135</v>
+      </c>
+      <c r="C155" t="s">
+        <v>290</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F155" t="s">
+        <v>82</v>
+      </c>
+      <c r="G155" t="s">
+        <v>33</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>292</v>
+      </c>
+      <c r="R155">
+        <v>0</v>
+      </c>
+      <c r="V155" t="s">
+        <v>83</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>100</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AB155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>252</v>
+      </c>
+      <c r="B156" t="s">
+        <v>136</v>
+      </c>
+      <c r="C156" t="s">
+        <v>291</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F156" t="s">
+        <v>82</v>
+      </c>
+      <c r="G156" t="s">
+        <v>33</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>293</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="V156" t="s">
+        <v>83</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>100</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AB156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>253</v>
+      </c>
+      <c r="B157" t="s">
+        <v>137</v>
+      </c>
+      <c r="C157" t="s">
+        <v>292</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F157" t="s">
+        <v>82</v>
+      </c>
+      <c r="G157" t="s">
+        <v>33</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>294</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="V157" t="s">
+        <v>83</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>100</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>254</v>
+      </c>
+      <c r="B158" t="s">
+        <v>138</v>
+      </c>
+      <c r="C158" t="s">
+        <v>293</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F158" t="s">
+        <v>82</v>
+      </c>
+      <c r="G158" t="s">
+        <v>33</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>295</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="V158" t="s">
+        <v>83</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>100</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AB158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>256</v>
+      </c>
+      <c r="B159" t="s">
+        <v>139</v>
+      </c>
+      <c r="C159" t="s">
+        <v>294</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F159" t="s">
+        <v>82</v>
+      </c>
+      <c r="G159" t="s">
+        <v>33</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>296</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="V159" t="s">
+        <v>83</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>100</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AB159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>255</v>
+      </c>
+      <c r="B160" t="s">
+        <v>140</v>
+      </c>
+      <c r="C160" t="s">
+        <v>295</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F160" t="s">
+        <v>82</v>
+      </c>
+      <c r="G160" t="s">
+        <v>33</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>297</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="V160" t="s">
+        <v>83</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>100</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>257</v>
+      </c>
+      <c r="B161" t="s">
+        <v>141</v>
+      </c>
+      <c r="C161" t="s">
+        <v>296</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F161" t="s">
+        <v>82</v>
+      </c>
+      <c r="G161" t="s">
+        <v>33</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>298</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="V161" t="s">
+        <v>83</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>100</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>258</v>
+      </c>
+      <c r="B162" t="s">
+        <v>142</v>
+      </c>
+      <c r="C162" t="s">
+        <v>297</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F162" t="s">
+        <v>82</v>
+      </c>
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>299</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="V162" t="s">
+        <v>83</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>100</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AB162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>259</v>
+      </c>
+      <c r="B163" t="s">
+        <v>143</v>
+      </c>
+      <c r="C163" t="s">
+        <v>298</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F163" t="s">
+        <v>82</v>
+      </c>
+      <c r="G163" t="s">
+        <v>33</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>300</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="V163" t="s">
+        <v>83</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>100</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AB163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>260</v>
+      </c>
+      <c r="B164" t="s">
+        <v>144</v>
+      </c>
+      <c r="C164" t="s">
+        <v>299</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F164" t="s">
+        <v>82</v>
+      </c>
+      <c r="G164" t="s">
+        <v>33</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>301</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="V164" t="s">
+        <v>83</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>100</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>261</v>
+      </c>
+      <c r="B165" t="s">
+        <v>145</v>
+      </c>
+      <c r="C165" t="s">
+        <v>300</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F165" t="s">
+        <v>82</v>
+      </c>
+      <c r="G165" t="s">
+        <v>33</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>302</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="V165" t="s">
+        <v>83</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>100</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>262</v>
+      </c>
+      <c r="B166" t="s">
+        <v>146</v>
+      </c>
+      <c r="C166" t="s">
+        <v>301</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F166" t="s">
+        <v>82</v>
+      </c>
+      <c r="G166" t="s">
+        <v>33</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>303</v>
+      </c>
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="V166" t="s">
+        <v>83</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>100</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AB166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>263</v>
+      </c>
+      <c r="B167" t="s">
+        <v>147</v>
+      </c>
+      <c r="C167" t="s">
+        <v>302</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F167" t="s">
+        <v>82</v>
+      </c>
+      <c r="G167" t="s">
+        <v>33</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>1</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>304</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="V167" t="s">
+        <v>83</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>100</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>264</v>
+      </c>
+      <c r="B168" t="s">
+        <v>148</v>
+      </c>
+      <c r="C168" t="s">
+        <v>303</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F168" t="s">
+        <v>82</v>
+      </c>
+      <c r="G168" t="s">
+        <v>33</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>305</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="V168" t="s">
+        <v>83</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>100</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AB168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>265</v>
+      </c>
+      <c r="B169" t="s">
+        <v>149</v>
+      </c>
+      <c r="C169" t="s">
+        <v>304</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F169" t="s">
+        <v>82</v>
+      </c>
+      <c r="G169" t="s">
+        <v>33</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>306</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="V169" t="s">
+        <v>83</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>100</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>266</v>
+      </c>
+      <c r="B170" t="s">
+        <v>150</v>
+      </c>
+      <c r="C170" t="s">
+        <v>305</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F170" t="s">
+        <v>82</v>
+      </c>
+      <c r="G170" t="s">
+        <v>33</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>307</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="V170" t="s">
+        <v>83</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>100</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AB170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>267</v>
+      </c>
+      <c r="B171" t="s">
+        <v>151</v>
+      </c>
+      <c r="C171" t="s">
+        <v>306</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F171" t="s">
+        <v>82</v>
+      </c>
+      <c r="G171" t="s">
+        <v>33</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>308</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="V171" t="s">
+        <v>83</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>100</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>268</v>
+      </c>
+      <c r="B172" t="s">
+        <v>152</v>
+      </c>
+      <c r="C172" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F172" t="s">
+        <v>82</v>
+      </c>
+      <c r="G172" t="s">
+        <v>33</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
         <v>309</v>
       </c>
-      <c r="R145">
-        <v>0</v>
-      </c>
-      <c r="V145" t="s">
-        <v>83</v>
-      </c>
-      <c r="W145">
-        <v>0</v>
-      </c>
-      <c r="X145">
-        <v>0</v>
-      </c>
-      <c r="Y145">
-        <v>100</v>
-      </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AB145">
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="V172" t="s">
+        <v>83</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>100</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>269</v>
+      </c>
+      <c r="B173" t="s">
+        <v>153</v>
+      </c>
+      <c r="C173" t="s">
+        <v>308</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F173" t="s">
+        <v>82</v>
+      </c>
+      <c r="G173" t="s">
+        <v>33</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>310</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="V173" t="s">
+        <v>83</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>100</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>270</v>
+      </c>
+      <c r="B174" t="s">
+        <v>154</v>
+      </c>
+      <c r="C174" t="s">
+        <v>309</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F174" t="s">
+        <v>82</v>
+      </c>
+      <c r="G174" t="s">
+        <v>33</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>311</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="V174" t="s">
+        <v>83</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174">
+        <v>100</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AB174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>271</v>
+      </c>
+      <c r="B175" t="s">
+        <v>155</v>
+      </c>
+      <c r="C175" t="s">
+        <v>310</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F175" t="s">
+        <v>82</v>
+      </c>
+      <c r="G175" t="s">
+        <v>33</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>312</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="V175" t="s">
+        <v>83</v>
+      </c>
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175">
+        <v>100</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>272</v>
+      </c>
+      <c r="B176" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" t="s">
+        <v>311</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F176" t="s">
+        <v>82</v>
+      </c>
+      <c r="G176" t="s">
+        <v>33</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>313</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="V176" t="s">
+        <v>83</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>0</v>
+      </c>
+      <c r="Y176">
+        <v>100</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>273</v>
+      </c>
+      <c r="B177" t="s">
+        <v>157</v>
+      </c>
+      <c r="C177" t="s">
+        <v>312</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F177" t="s">
+        <v>82</v>
+      </c>
+      <c r="G177" t="s">
+        <v>33</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>314</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="V177" t="s">
+        <v>83</v>
+      </c>
+      <c r="W177">
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177">
+        <v>100</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J178" s="3">
+        <v>0</v>
+      </c>
+      <c r="K178" s="3">
+        <v>0</v>
+      </c>
+      <c r="L178" s="3">
+        <v>0</v>
+      </c>
+      <c r="M178" s="3">
+        <v>0</v>
+      </c>
+      <c r="N178" s="3">
+        <v>0</v>
+      </c>
+      <c r="O178" s="3">
+        <v>0</v>
+      </c>
+      <c r="P178" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="3">
+        <v>309</v>
+      </c>
+      <c r="R178" s="3">
+        <v>0</v>
+      </c>
+      <c r="V178" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W178" s="3">
+        <v>0</v>
+      </c>
+      <c r="X178" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y178">
+        <v>100</v>
+      </c>
+      <c r="Z178" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J179" s="3">
+        <v>0</v>
+      </c>
+      <c r="K179" s="3">
+        <v>0</v>
+      </c>
+      <c r="L179" s="3">
+        <v>0</v>
+      </c>
+      <c r="M179" s="3">
+        <v>0</v>
+      </c>
+      <c r="N179" s="3">
+        <v>0</v>
+      </c>
+      <c r="O179" s="3">
+        <v>0</v>
+      </c>
+      <c r="P179" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="3">
+        <v>309</v>
+      </c>
+      <c r="R179" s="3">
+        <v>0</v>
+      </c>
+      <c r="V179" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W179" s="3">
+        <v>0</v>
+      </c>
+      <c r="X179" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y179">
+        <v>100</v>
+      </c>
+      <c r="Z179" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J180" s="3">
+        <v>0</v>
+      </c>
+      <c r="K180" s="3">
+        <v>0</v>
+      </c>
+      <c r="L180" s="3">
+        <v>0</v>
+      </c>
+      <c r="M180" s="3">
+        <v>0</v>
+      </c>
+      <c r="N180" s="3">
+        <v>0</v>
+      </c>
+      <c r="O180" s="3">
+        <v>0</v>
+      </c>
+      <c r="P180" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="3">
+        <v>309</v>
+      </c>
+      <c r="R180" s="3">
+        <v>0</v>
+      </c>
+      <c r="V180" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W180" s="3">
+        <v>0</v>
+      </c>
+      <c r="X180" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>100</v>
+      </c>
+      <c r="Z180" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J181" s="3">
+        <v>0</v>
+      </c>
+      <c r="K181" s="3">
+        <v>0</v>
+      </c>
+      <c r="L181" s="3">
+        <v>0</v>
+      </c>
+      <c r="M181" s="3">
+        <v>0</v>
+      </c>
+      <c r="N181" s="3">
+        <v>0</v>
+      </c>
+      <c r="O181" s="3">
+        <v>0</v>
+      </c>
+      <c r="P181" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="3">
+        <v>309</v>
+      </c>
+      <c r="R181" s="3">
+        <v>0</v>
+      </c>
+      <c r="V181" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W181" s="3">
+        <v>0</v>
+      </c>
+      <c r="X181" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>100</v>
+      </c>
+      <c r="Z181" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J182" s="3">
+        <v>0</v>
+      </c>
+      <c r="K182" s="3">
+        <v>0</v>
+      </c>
+      <c r="L182" s="3">
+        <v>0</v>
+      </c>
+      <c r="M182" s="3">
+        <v>0</v>
+      </c>
+      <c r="N182" s="3">
+        <v>0</v>
+      </c>
+      <c r="O182" s="3">
+        <v>0</v>
+      </c>
+      <c r="P182" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="3">
+        <v>309</v>
+      </c>
+      <c r="R182" s="3">
+        <v>0</v>
+      </c>
+      <c r="V182" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W182" s="3">
+        <v>0</v>
+      </c>
+      <c r="X182" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>100</v>
+      </c>
+      <c r="Z182" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J183" s="3">
+        <v>0</v>
+      </c>
+      <c r="K183" s="3">
+        <v>0</v>
+      </c>
+      <c r="L183" s="3">
+        <v>0</v>
+      </c>
+      <c r="M183" s="3">
+        <v>0</v>
+      </c>
+      <c r="N183" s="3">
+        <v>0</v>
+      </c>
+      <c r="O183" s="3">
+        <v>0</v>
+      </c>
+      <c r="P183" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="3">
+        <v>309</v>
+      </c>
+      <c r="R183" s="3">
+        <v>0</v>
+      </c>
+      <c r="V183" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W183" s="3">
+        <v>0</v>
+      </c>
+      <c r="X183" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>100</v>
+      </c>
+      <c r="Z183" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J184" s="3">
+        <v>0</v>
+      </c>
+      <c r="K184" s="3">
+        <v>0</v>
+      </c>
+      <c r="L184" s="3">
+        <v>0</v>
+      </c>
+      <c r="M184" s="3">
+        <v>0</v>
+      </c>
+      <c r="N184" s="3">
+        <v>0</v>
+      </c>
+      <c r="O184" s="3">
+        <v>0</v>
+      </c>
+      <c r="P184" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="3">
+        <v>309</v>
+      </c>
+      <c r="R184" s="3">
+        <v>0</v>
+      </c>
+      <c r="V184" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W184" s="3">
+        <v>0</v>
+      </c>
+      <c r="X184" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>100</v>
+      </c>
+      <c r="Z184" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J185" s="3">
+        <v>0</v>
+      </c>
+      <c r="K185" s="3">
+        <v>0</v>
+      </c>
+      <c r="L185" s="3">
+        <v>0</v>
+      </c>
+      <c r="M185" s="3">
+        <v>0</v>
+      </c>
+      <c r="N185" s="3">
+        <v>0</v>
+      </c>
+      <c r="O185" s="3">
+        <v>0</v>
+      </c>
+      <c r="P185" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="3">
+        <v>309</v>
+      </c>
+      <c r="R185" s="3">
+        <v>0</v>
+      </c>
+      <c r="V185" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W185" s="3">
+        <v>0</v>
+      </c>
+      <c r="X185" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>100</v>
+      </c>
+      <c r="Z185" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J186" s="3">
+        <v>0</v>
+      </c>
+      <c r="K186" s="3">
+        <v>0</v>
+      </c>
+      <c r="L186" s="3">
+        <v>0</v>
+      </c>
+      <c r="M186" s="3">
+        <v>0</v>
+      </c>
+      <c r="N186" s="3">
+        <v>0</v>
+      </c>
+      <c r="O186" s="3">
+        <v>0</v>
+      </c>
+      <c r="P186" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="3">
+        <v>309</v>
+      </c>
+      <c r="R186" s="3">
+        <v>0</v>
+      </c>
+      <c r="V186" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W186" s="3">
+        <v>0</v>
+      </c>
+      <c r="X186" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y186">
+        <v>100</v>
+      </c>
+      <c r="Z186" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J187" s="3">
+        <v>0</v>
+      </c>
+      <c r="K187" s="3">
+        <v>0</v>
+      </c>
+      <c r="L187" s="3">
+        <v>0</v>
+      </c>
+      <c r="M187" s="3">
+        <v>0</v>
+      </c>
+      <c r="N187" s="3">
+        <v>0</v>
+      </c>
+      <c r="O187" s="3">
+        <v>0</v>
+      </c>
+      <c r="P187" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="3">
+        <v>309</v>
+      </c>
+      <c r="R187" s="3">
+        <v>0</v>
+      </c>
+      <c r="V187" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W187" s="3">
+        <v>0</v>
+      </c>
+      <c r="X187" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>100</v>
+      </c>
+      <c r="Z187" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J188" s="3">
+        <v>0</v>
+      </c>
+      <c r="K188" s="3">
+        <v>0</v>
+      </c>
+      <c r="L188" s="3">
+        <v>0</v>
+      </c>
+      <c r="M188" s="3">
+        <v>0</v>
+      </c>
+      <c r="N188" s="3">
+        <v>0</v>
+      </c>
+      <c r="O188" s="3">
+        <v>0</v>
+      </c>
+      <c r="P188" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="3">
+        <v>309</v>
+      </c>
+      <c r="R188" s="3">
+        <v>0</v>
+      </c>
+      <c r="V188" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W188" s="3">
+        <v>0</v>
+      </c>
+      <c r="X188" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>100</v>
+      </c>
+      <c r="Z188" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J189" s="3">
+        <v>0</v>
+      </c>
+      <c r="K189" s="3">
+        <v>0</v>
+      </c>
+      <c r="L189" s="3">
+        <v>0</v>
+      </c>
+      <c r="M189" s="3">
+        <v>0</v>
+      </c>
+      <c r="N189" s="3">
+        <v>0</v>
+      </c>
+      <c r="O189" s="3">
+        <v>0</v>
+      </c>
+      <c r="P189" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="3">
+        <v>309</v>
+      </c>
+      <c r="R189" s="3">
+        <v>0</v>
+      </c>
+      <c r="V189" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W189" s="3">
+        <v>0</v>
+      </c>
+      <c r="X189" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>100</v>
+      </c>
+      <c r="Z189" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J190" s="3">
+        <v>0</v>
+      </c>
+      <c r="K190" s="3">
+        <v>0</v>
+      </c>
+      <c r="L190" s="3">
+        <v>0</v>
+      </c>
+      <c r="M190" s="3">
+        <v>0</v>
+      </c>
+      <c r="N190" s="3">
+        <v>0</v>
+      </c>
+      <c r="O190" s="3">
+        <v>0</v>
+      </c>
+      <c r="P190" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="3">
+        <v>309</v>
+      </c>
+      <c r="R190" s="3">
+        <v>0</v>
+      </c>
+      <c r="V190" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W190" s="3">
+        <v>0</v>
+      </c>
+      <c r="X190" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>100</v>
+      </c>
+      <c r="Z190" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J191" s="3">
+        <v>0</v>
+      </c>
+      <c r="K191" s="3">
+        <v>0</v>
+      </c>
+      <c r="L191" s="3">
+        <v>0</v>
+      </c>
+      <c r="M191" s="3">
+        <v>0</v>
+      </c>
+      <c r="N191" s="3">
+        <v>0</v>
+      </c>
+      <c r="O191" s="3">
+        <v>0</v>
+      </c>
+      <c r="P191" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="3">
+        <v>309</v>
+      </c>
+      <c r="R191" s="3">
+        <v>0</v>
+      </c>
+      <c r="V191" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W191" s="3">
+        <v>0</v>
+      </c>
+      <c r="X191" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>100</v>
+      </c>
+      <c r="Z191" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J192" s="3">
+        <v>0</v>
+      </c>
+      <c r="K192" s="3">
+        <v>0</v>
+      </c>
+      <c r="L192" s="3">
+        <v>0</v>
+      </c>
+      <c r="M192" s="3">
+        <v>0</v>
+      </c>
+      <c r="N192" s="3">
+        <v>0</v>
+      </c>
+      <c r="O192" s="3">
+        <v>0</v>
+      </c>
+      <c r="P192" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q192" s="3">
+        <v>309</v>
+      </c>
+      <c r="R192" s="3">
+        <v>0</v>
+      </c>
+      <c r="V192" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W192" s="3">
+        <v>0</v>
+      </c>
+      <c r="X192" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>100</v>
+      </c>
+      <c r="Z192" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>159</v>
+      </c>
+      <c r="B193" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" t="s">
+        <v>160</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F193" t="s">
+        <v>82</v>
+      </c>
+      <c r="G193" t="s">
+        <v>33</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>309</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="V193" t="s">
+        <v>83</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>100</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>402</v>
+      </c>
+      <c r="B194" t="s">
+        <v>365</v>
+      </c>
+      <c r="C194" t="s">
+        <v>403</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F194" t="s">
+        <v>82</v>
+      </c>
+      <c r="G194" t="s">
+        <v>33</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>309</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="V194" t="s">
+        <v>83</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>100</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>404</v>
+      </c>
+      <c r="B195" t="s">
+        <v>366</v>
+      </c>
+      <c r="C195" t="s">
+        <v>405</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F195" t="s">
+        <v>82</v>
+      </c>
+      <c r="G195" t="s">
+        <v>33</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>309</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="V195" t="s">
+        <v>83</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>100</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AB195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>406</v>
+      </c>
+      <c r="B196" t="s">
+        <v>367</v>
+      </c>
+      <c r="C196" t="s">
+        <v>407</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F196" t="s">
+        <v>82</v>
+      </c>
+      <c r="G196" t="s">
+        <v>33</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>309</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="V196" t="s">
+        <v>83</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>100</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>408</v>
+      </c>
+      <c r="B197" t="s">
+        <v>368</v>
+      </c>
+      <c r="C197" t="s">
+        <v>409</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F197" t="s">
+        <v>82</v>
+      </c>
+      <c r="G197" t="s">
+        <v>33</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>309</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="V197" t="s">
+        <v>83</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>100</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AB197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>410</v>
+      </c>
+      <c r="B198" t="s">
+        <v>369</v>
+      </c>
+      <c r="C198" t="s">
+        <v>411</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F198" t="s">
+        <v>82</v>
+      </c>
+      <c r="G198" t="s">
+        <v>33</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
+        <v>309</v>
+      </c>
+      <c r="R198">
+        <v>0</v>
+      </c>
+      <c r="V198" t="s">
+        <v>83</v>
+      </c>
+      <c r="W198">
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198">
+        <v>100</v>
+      </c>
+      <c r="Z198">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>412</v>
+      </c>
+      <c r="B199" t="s">
+        <v>120</v>
+      </c>
+      <c r="C199" t="s">
+        <v>413</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F199" t="s">
+        <v>82</v>
+      </c>
+      <c r="G199" t="s">
+        <v>33</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>309</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="V199" t="s">
+        <v>83</v>
+      </c>
+      <c r="W199">
+        <v>0</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199">
+        <v>100</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>414</v>
+      </c>
+      <c r="B200" t="s">
+        <v>370</v>
+      </c>
+      <c r="C200" t="s">
+        <v>415</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F200" t="s">
+        <v>82</v>
+      </c>
+      <c r="G200" t="s">
+        <v>33</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>309</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="V200" t="s">
+        <v>83</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>100</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>416</v>
+      </c>
+      <c r="B201" t="s">
+        <v>371</v>
+      </c>
+      <c r="C201" t="s">
+        <v>417</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F201" t="s">
+        <v>82</v>
+      </c>
+      <c r="G201" t="s">
+        <v>33</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>309</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="V201" t="s">
+        <v>83</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>100</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AB201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>418</v>
+      </c>
+      <c r="B202" t="s">
+        <v>372</v>
+      </c>
+      <c r="C202" t="s">
+        <v>419</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F202" t="s">
+        <v>82</v>
+      </c>
+      <c r="G202" t="s">
+        <v>33</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
+        <v>309</v>
+      </c>
+      <c r="R202">
+        <v>0</v>
+      </c>
+      <c r="V202" t="s">
+        <v>83</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>100</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>420</v>
+      </c>
+      <c r="B203" t="s">
+        <v>373</v>
+      </c>
+      <c r="C203" t="s">
+        <v>421</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F203" t="s">
+        <v>82</v>
+      </c>
+      <c r="G203" t="s">
+        <v>33</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
+        <v>309</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="V203" t="s">
+        <v>83</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>100</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AB203">
         <v>0</v>
       </c>
     </row>
